--- a/sql insert generator.xlsx
+++ b/sql insert generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="VenueLocation" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Inventory" sheetId="6" r:id="rId8"/>
     <sheet name="Supply" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="226">
   <si>
     <t>VenueCode</t>
   </si>
@@ -462,9 +462,6 @@
     <t>IngredientListCode</t>
   </si>
   <si>
-    <t>Steak and Kidney Pie</t>
-  </si>
-  <si>
     <t>sample description</t>
   </si>
   <si>
@@ -573,9 +570,6 @@
     <t>Pies</t>
   </si>
   <si>
-    <t>Horseradish - extra hot</t>
-  </si>
-  <si>
     <t>2016-03-07</t>
   </si>
   <si>
@@ -676,6 +670,36 @@
   </si>
   <si>
     <t>09:45:19</t>
+  </si>
+  <si>
+    <t>Chicken Pot Pie</t>
+  </si>
+  <si>
+    <t>Vegetable Pie</t>
+  </si>
+  <si>
+    <t>Beef Pie</t>
+  </si>
+  <si>
+    <t>Stew Pie</t>
+  </si>
+  <si>
+    <t>Steak and Stilton Pie</t>
+  </si>
+  <si>
+    <t>Blueberry Jam</t>
+  </si>
+  <si>
+    <t>Strawberry Jam</t>
+  </si>
+  <si>
+    <t>Blackberry Jam</t>
+  </si>
+  <si>
+    <t>Marmalade</t>
+  </si>
+  <si>
+    <t>Peach Butter</t>
   </si>
 </sst>
 </file>
@@ -724,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -736,6 +760,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,22 +1111,22 @@
         <v>89</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2">
         <v>49.99</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100, 325)</f>
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(75,150)</f>
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(20,75)</f>
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1112,22 +1137,22 @@
         <v>90</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3">
         <v>60</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="0">RANDBETWEEN(100, 325)</f>
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" ca="1" si="1">RANDBETWEEN(75,150)</f>
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" ca="1" si="2">RANDBETWEEN(20,75)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1138,22 +1163,22 @@
         <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4">
         <v>44.99</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1164,22 +1189,22 @@
         <v>95</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D5">
         <v>50</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,22 +1215,22 @@
         <v>92</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D6">
         <v>45</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,22 +1241,22 @@
         <v>91</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>35</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,22 +1267,22 @@
         <v>90</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,22 +1293,22 @@
         <v>93</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1294,22 +1319,22 @@
         <v>94</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D10">
         <v>45</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1320,22 +1345,22 @@
         <v>94</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11">
         <v>49.95</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1346,22 +1371,22 @@
         <v>91</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,22 +1397,22 @@
         <v>89</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D13">
         <v>35</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1398,22 +1423,22 @@
         <v>95</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D14">
         <v>45</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1424,22 +1449,22 @@
         <v>96</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15">
         <v>50</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1450,46 +1475,46 @@
         <v>97</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D16">
         <v>50</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"', '",E2,"', '",F2,"', '",G2,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (1, 'Trenton', '2016-03-07', '49.99', '274', '110', '51');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (1, 'Trenton', '2016-03-07', '49.99', '322', '119', '58');</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (2, 'Oshawa', '2016-03-14', '60', '205', '111', '44');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (2, 'Oshawa', '2016-03-14', '60', '232', '140', '41');</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ref="A21:A32" ca="1" si="3">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A4,", '",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (3, 'Ajax', '2016-03-25', '44.99', '168', '139', '59');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (3, 'Ajax', '2016-03-25', '44.99', '145', '128', '73');</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (4, 'Whitby', '2016-04-01', '50', '142', '127', '42');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (4, 'Whitby', '2016-04-01', '50', '130', '101', '20');</v>
       </c>
       <c r="E22" s="2"/>
       <c r="H22" s="3"/>
@@ -1497,7 +1522,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (5, 'Pickering', '2016-04-08', '45', '165', '116', '49');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (5, 'Pickering', '2016-04-08', '45', '166', '107', '25');</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1505,7 +1530,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (6, 'Ajax', '2016-04-16', '35', '278', '83', '23');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (6, 'Ajax', '2016-04-16', '35', '236', '93', '70');</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1514,7 +1539,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (7, 'Oshawa', '2016-04-27', '30', '269', '84', '58');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (7, 'Oshawa', '2016-04-27', '30', '289', '136', '53');</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1522,7 +1547,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (8, 'Claremont', '2016-04-28', '20', '104', '99', '41');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (8, 'Claremont', '2016-04-28', '20', '159', '138', '61');</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1531,7 +1556,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (9, 'Toronto', '2016-05-04', '45', '183', '115', '50');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (9, 'Toronto', '2016-05-04', '45', '274', '107', '61');</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1540,7 +1565,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (10, 'Toronto', '2016-05-11', '49.95', '105', '150', '72');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (10, 'Toronto', '2016-05-11', '49.95', '292', '146', '48');</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1548,7 +1573,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (11, 'Ajax', '2016-05-17', '25', '128', '109', '22');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (11, 'Ajax', '2016-05-17', '25', '255', '106', '68');</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1557,7 +1582,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (12, 'Trenton', '2016-05-18', '35', '198', '128', '42');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (12, 'Trenton', '2016-05-18', '35', '193', '91', '20');</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1565,7 +1590,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (13, 'Whitby', '2016-05-25', '45', '226', '85', '69');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (13, 'Whitby', '2016-05-25', '45', '146', '90', '59');</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1573,7 +1598,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (14, 'GreenWood', '2016-05-26', '50', '193', '135', '53');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (14, 'GreenWood', '2016-05-26', '50', '108', '87', '68');</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1581,7 +1606,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A16,", '",B16,"', '",C16,"', '",D16,"', '",E16,"', '",F16,"', '",G16,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (15, 'Markham', '2016-06-03', '50', '132', '150', '58');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (15, 'Markham', '2016-06-03', '50', '184', '148', '63');</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1840,22 +1865,22 @@
         <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1875,22 +1900,22 @@
         <v>80</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1910,22 +1935,22 @@
         <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1945,22 +1970,22 @@
         <v>82</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1980,22 +2005,22 @@
         <v>83</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2015,22 +2040,22 @@
         <v>84</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2050,22 +2075,22 @@
         <v>85</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2085,22 +2110,22 @@
         <v>86</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2120,22 +2145,22 @@
         <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2155,22 +2180,22 @@
         <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2320,10 +2345,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2413,7 +2438,7 @@
         <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -2428,34 +2453,34 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="L2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M2">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T2">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2466,13 +2491,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="E3">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -2484,50 +2509,1184 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T3">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>450</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>11</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>680</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <v>22</v>
+      </c>
+      <c r="R5">
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>420</v>
+      </c>
+      <c r="L6">
+        <v>45</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>10</v>
+      </c>
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>12</v>
+      </c>
+      <c r="Q7">
+        <v>22</v>
+      </c>
+      <c r="R7">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>150</v>
+      </c>
+      <c r="L8">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>21</v>
+      </c>
+      <c r="N8">
+        <v>55</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>29</v>
+      </c>
+      <c r="Q8">
+        <v>13</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>10</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>160</v>
+      </c>
+      <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>11</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+      <c r="R9">
+        <v>16</v>
+      </c>
+      <c r="S9">
+        <v>12</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>180</v>
+      </c>
+      <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>18</v>
+      </c>
+      <c r="Q10">
+        <v>22</v>
+      </c>
+      <c r="R10">
+        <v>12</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>120</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>30</v>
+      </c>
+      <c r="Q11">
+        <v>10</v>
+      </c>
+      <c r="R11">
+        <v>17</v>
+      </c>
+      <c r="S11">
+        <v>12</v>
+      </c>
+      <c r="T11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>K2/2</f>
+        <v>200</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" ref="L12:T12" si="0">L2/2</f>
+        <v>10</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="P12" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="S12" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T12" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:T21" si="1">K3/2</f>
+        <v>250</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="N13" s="11">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="O13" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R13" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S13" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T14" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="O15" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17">
+        <v>250</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="N17" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="O17" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="P17" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Q17" s="11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R17" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="S17" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T17" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18">
+        <v>250</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="O18" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="11">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q18" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="R18" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S18" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T18" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19">
+        <v>250</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>35</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="O19" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="Q19" s="11">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="R19" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S19" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T19" s="11">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20">
+        <v>250</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="O20" s="11">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="P20" s="11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21">
+        <v>250</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="L21" s="11">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O21" s="11">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="P21" s="11">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="Q21" s="11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R21" s="11">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="S21" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T21" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,") VALUES (",A2,", ",B2,", '",C2,"', '",D2,"', ",E2,", '",F2,"', '",G2,"', '",H2,"', ",I2,", '",J2,"', ",K2,", ",L2,", ",M2,", ",N2,", ",O2,", ",P2,", ",Q2,", ",R2,", ",S2,", ",T2,");")</f>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (1, 1, 'Pie', 'Steak and Kidney Pie', 1000, 'TRUE', '', '', 10, 'FALSE', 1200, 50, 22, 28, 56, 256, 56, 6, 8, 44);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (1, 1, 'Pie', 'Chicken Pot Pie', 1000, 'TRUE', '', '', 10, 'FALSE', 400, 20, 10, 5, 5, 10, 20, 15, 10, 7);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
         <f>CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,") VALUES (",A3,", ",B3,", '",C3,"', '",D3,"', ",E3,", '",F3,"', '",G3,"', '",H3,"', ",I3,", '",J3,"', ",K3,", ",L3,", ",M3,", ",N3,", ",O3,", ",P3,", ",Q3,", ",R3,", ",S3,", ",T3,");")</f>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (2, 2, 'Preserve', 'Horseradish - extra hot', 250, 'TRUE', '', '', 8, 'FALSE', 40, 2, 1, 1, 3, 100, 20, 9, 4, 3);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (2, 2, 'Pie', 'Vegetable Pie', 1000, 'TRUE', '', '', 8, 'FALSE', 500, 26, 11, 15, 7, 19, 10, 24, 10, 3);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2536,11 +3695,12 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A33"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -2580,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>100</v>
@@ -2604,7 +3764,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>101</v>
@@ -2628,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>106</v>
@@ -2652,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>102</v>
@@ -2676,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>103</v>
@@ -2700,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>109</v>
@@ -2724,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>111</v>
@@ -2748,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>113</v>
@@ -2772,7 +3932,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>103</v>
@@ -2796,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>115</v>
@@ -2820,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>117</v>
@@ -2844,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>119</v>
@@ -2868,7 +4028,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>122</v>
@@ -2892,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>123</v>
@@ -2916,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>125</v>
@@ -2940,7 +4100,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" ref="A20:A34" si="1">CONCATENATE("INSERT INTO transactions (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"');")</f>
+        <f t="shared" ref="A20:A33" si="1">CONCATENATE("INSERT INTO transactions (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"');")</f>
         <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (2, '1', '2016-03-07', 'Eva', 'Matys', 'Eva@gmail.com', '4165654325');</v>
       </c>
     </row>
@@ -3029,10 +4189,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -3082,7 +4242,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,7 +4253,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3104,7 +4264,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3115,43 +4275,252 @@
         <v>4</v>
       </c>
       <c r="C7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>CONCATENATE("INSERT INTO transactionline (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A2,", ",B2,", ",C2,");")</f>
-        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (1, 1, 1);</v>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f t="shared" ref="A12:A16" si="0">CONCATENATE("INSERT INTO transactionline (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A3,", ",B3,", ",C3,");")</f>
-        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (2, 1, 2);</v>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" ref="A31:A36" si="0">CONCATENATE("INSERT INTO transactionline (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A2,", ",B2,", ",C2,");")</f>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (1, 1, 3);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (2, 1, 11);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (4, 3, 1);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (3, 2, 5);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (5, 4, 1);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (4, 3, 7);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (6, 4, 2);</v>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (5, 4, 9);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (6, 4, 19);</v>
       </c>
     </row>
   </sheetData>
@@ -3429,15 +4798,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
@@ -3480,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2">
         <v>600</v>
@@ -3489,11 +4858,115 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
         <f>CONCATENATE("INSERT INTO mainingredientlist (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A2,", ",B2,", ",C2,", '",D2,"', ",E2,", ",F2,", '",G2,"');")</f>
         <v>INSERT INTO mainingredientlist (IngredientListCode, IngredientCode, ProductCode, Description, IngredientQuantity, CostPerQuantity, IngredientUnit) VALUES (1, 1, 1, 'sample description', 600, 0.022, 'g');</v>
       </c>
@@ -3505,10 +4978,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3548,20 +5021,85 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2">
         <v>5.99</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
         <f>CONCATENATE("INSERT INTO inventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES (",A2,", ",B2,", '",C2,"', ",D2,", '",E2,"', '",F2,"');")</f>
         <v>INSERT INTO inventory (InventoryID, IngredientCode, Description, QuantityInStock, InventoryUnit, CostPerUnit) VALUES (1, 1, 'Inventory table description', 5, 'Pies', '5.99');</v>
       </c>
@@ -3575,7 +5113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3631,13 +5169,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3652,7 +5190,7 @@
         <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">

--- a/sql insert generator.xlsx
+++ b/sql insert generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" tabRatio="637" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="VenueLocation" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,20 @@
     <sheet name="Main" sheetId="4" r:id="rId3"/>
     <sheet name="Transactions" sheetId="2" r:id="rId4"/>
     <sheet name="TransactionLine" sheetId="3" r:id="rId5"/>
-    <sheet name="Ingredient" sheetId="10" r:id="rId6"/>
-    <sheet name="MainIngredientList" sheetId="5" r:id="rId7"/>
-    <sheet name="Inventory" sheetId="6" r:id="rId8"/>
+    <sheet name="Accessories" sheetId="11" r:id="rId6"/>
+    <sheet name="ProductInventory" sheetId="12" r:id="rId7"/>
+    <sheet name="IngredientInventory" sheetId="13" r:id="rId8"/>
     <sheet name="Supply" sheetId="7" r:id="rId9"/>
+    <sheet name="MainIngredientList" sheetId="5" r:id="rId10"/>
+    <sheet name="old-ignore1" sheetId="10" r:id="rId11"/>
+    <sheet name="old-ignore" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="233">
   <si>
     <t>VenueCode</t>
   </si>
@@ -700,6 +703,27 @@
   </si>
   <si>
     <t>Peach Butter</t>
+  </si>
+  <si>
+    <t>AccessoryCode</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>QuantityOnHand</t>
+  </si>
+  <si>
+    <t>Large Pie Plate</t>
+  </si>
+  <si>
+    <t>Small Pie Plate</t>
+  </si>
+  <si>
+    <t>Large  Jar</t>
+  </si>
+  <si>
+    <t>Small Jar</t>
   </si>
 </sst>
 </file>
@@ -1118,15 +1142,15 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100, 325)</f>
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(75,150)</f>
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(20,75)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1144,15 +1168,15 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="0">RANDBETWEEN(100, 325)</f>
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" ca="1" si="1">RANDBETWEEN(75,150)</f>
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" ca="1" si="2">RANDBETWEEN(20,75)</f>
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,15 +1194,15 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1196,15 +1220,15 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,15 +1246,15 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,15 +1272,15 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,15 +1298,15 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,15 +1324,15 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1326,15 +1350,15 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1352,15 +1376,15 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,15 +1402,15 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1404,15 +1428,15 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,15 +1454,15 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,15 +1480,15 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,39 +1506,39 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"', '",E2,"', '",F2,"', '",G2,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (1, 'Trenton', '2016-03-07', '49.99', '322', '119', '58');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (1, 'Trenton', '2016-03-07', '49.99', '292', '145', '62');</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (2, 'Oshawa', '2016-03-14', '60', '232', '140', '41');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (2, 'Oshawa', '2016-03-14', '60', '111', '100', '53');</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ref="A21:A32" ca="1" si="3">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A4,", '",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (3, 'Ajax', '2016-03-25', '44.99', '145', '128', '73');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (3, 'Ajax', '2016-03-25', '44.99', '290', '140', '60');</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (4, 'Whitby', '2016-04-01', '50', '130', '101', '20');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (4, 'Whitby', '2016-04-01', '50', '101', '128', '66');</v>
       </c>
       <c r="E22" s="2"/>
       <c r="H22" s="3"/>
@@ -1522,7 +1546,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (5, 'Pickering', '2016-04-08', '45', '166', '107', '25');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (5, 'Pickering', '2016-04-08', '45', '133', '85', '43');</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1530,7 +1554,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (6, 'Ajax', '2016-04-16', '35', '236', '93', '70');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (6, 'Ajax', '2016-04-16', '35', '204', '139', '52');</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1539,7 +1563,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (7, 'Oshawa', '2016-04-27', '30', '289', '136', '53');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (7, 'Oshawa', '2016-04-27', '30', '234', '97', '51');</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1547,7 +1571,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (8, 'Claremont', '2016-04-28', '20', '159', '138', '61');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (8, 'Claremont', '2016-04-28', '20', '140', '89', '44');</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1556,7 +1580,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (9, 'Toronto', '2016-05-04', '45', '274', '107', '61');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (9, 'Toronto', '2016-05-04', '45', '196', '133', '51');</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1565,7 +1589,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (10, 'Toronto', '2016-05-11', '49.95', '292', '146', '48');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (10, 'Toronto', '2016-05-11', '49.95', '288', '141', '28');</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1573,7 +1597,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (11, 'Ajax', '2016-05-17', '25', '255', '106', '68');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (11, 'Ajax', '2016-05-17', '25', '322', '97', '43');</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1582,7 +1606,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (12, 'Trenton', '2016-05-18', '35', '193', '91', '20');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (12, 'Trenton', '2016-05-18', '35', '306', '100', '22');</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1590,7 +1614,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (13, 'Whitby', '2016-05-25', '45', '146', '90', '59');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (13, 'Whitby', '2016-05-25', '45', '258', '93', '72');</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1598,7 +1622,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (14, 'GreenWood', '2016-05-26', '50', '108', '87', '68');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (14, 'GreenWood', '2016-05-26', '50', '211', '115', '74');</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1606,7 +1630,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A16,", '",B16,"', '",C16,"', '",D16,"', '",E16,"', '",F16,"', '",G16,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (15, 'Markham', '2016-06-03', '50', '184', '148', '63');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (15, 'Markham', '2016-06-03', '50', '239', '103', '22');</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1789,6 +1813,587 @@
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2">
+        <v>600</v>
+      </c>
+      <c r="F2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>CONCATENATE("INSERT INTO mainingredientlist (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A2,", ",B2,", ",C2,", '",D2,"', ",E2,", ",F2,", '",G2,"');")</f>
+        <v>INSERT INTO mainingredientlist (IngredientListCode, IngredientCode, ProductCode, Description, IngredientQuantity, CostPerQuantity, IngredientUnit) VALUES (1, 1, 1, 'sample description', 600, 0.022, 'g');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>CONCATENATE("INSERT INTO ingredient (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A2,", '",B2,"', '",C2,"');")</f>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (1, 'Flour', '6.99');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>CONCATENATE("INSERT INTO ingredient (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A3,", '",B3,"', '",C3,"');")</f>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (2, 'Baking Soda', '3.99');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" ref="A19:A30" si="0">CONCATENATE("INSERT INTO ingredient (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A4,", '",B4,"', '",C4,"');")</f>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (3, 'Salt', '2.49');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (4, 'Sugar', '1.99');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (5, 'Steak', '11.99');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (6, 'Kidney', '4.99');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (7, 'Stout', '13.99');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (8, 'Carrots', '2.99');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (9, 'Potatoes', '3.99');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (10, 'Onion', '3.49');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (11, 'Butter', '2.99');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (12, 'Eggs', '3.29');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (13, 'Mushrooms', '5.49');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (14, 'Vegetable Oil', '4.49');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>CONCATENATE("INSERT INTO inventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES (",A2,", ",B2,", '",C2,"', ",D2,", '",E2,"', '",F2,"');")</f>
+        <v>INSERT INTO inventory (InventoryID, IngredientCode, Description, QuantityInStock, InventoryUnit, CostPerUnit) VALUES (1, 1, 'Inventory table description', 5, 'Pies', '5.99');</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2345,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,6 +4289,114 @@
         <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (2, 2, 'Pie', 'Vegetable Pie', 1000, 'TRUE', '', '', 8, 'FALSE', 500, 26, 11, 15, 7, 19, 10, 24, 10, 3);</v>
       </c>
     </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" ref="A36:A65" si="2">CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,") VALUES (",A4,", ",B4,", '",C4,"', '",D4,"', ",E4,", '",F4,"', '",G4,"', '",H4,"', ",I4,", '",J4,"', ",K4,", ",L4,", ",M4,", ",N4,", ",O4,", ",P4,", ",Q4,", ",R4,", ",S4,", ",T4,");")</f>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (3, 3, 'Pie', 'Beef Pie', 1000, 'TRUE', '', '', 5, 'FALSE', 450, 13, 16, 7, 2, 11, 17, 16, 12, 9);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (4, 4, 'Pie', 'Stew Pie', 1000, 'TRUE', '', '', 3, 'FALSE', 680, 16, 13, 3, 7, 18, 22, 12, 4, 17);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (5, 5, 'Pie', 'Steak and Stilton Pie', 1000, 'TRUE', '', '', 8, 'FALSE', 420, 45, 17, 50, 8, 10, 20, 15, 12, 13);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (6, 6, 'Preserve', 'Blueberry Jam', 500, 'TRUE', '', '', 2, 'FALSE', 200, 20, 11, 3, 9, 12, 22, 11, 14, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (7, 7, 'Preserve', 'Strawberry Jam', 500, 'TRUE', '', '', 4, 'FALSE', 150, 26, 21, 55, 3, 29, 13, 4, 10, 3);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (8, 8, 'Preserve', 'Blackberry Jam', 500, 'TRUE', '', '', 5, 'FALSE', 160, 13, 16, 7, 2, 11, 17, 16, 12, 9);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (9, 9, 'Preserve', 'Marmalade', 500, 'TRUE', '', '', 6, 'FALSE', 180, 16, 13, 3, 7, 18, 22, 12, 4, 17);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (10, 10, 'Preserve', 'Peach Butter', 500, 'TRUE', '', '', 8, 'FALSE', 120, 15, 14, 20, 5, 30, 10, 17, 12, 13);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (11, 11, 'Pie', 'Chicken Pot Pie', 500, 'TRUE', '', '', 6, 'FALSE', 200, 10, 5, 2.5, 2.5, 5, 10, 7.5, 5, 3.5);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (12, 12, 'Pie', 'Vegetable Pie', 500, 'TRUE', '', '', 9, 'FALSE', 250, 13, 5.5, 7.5, 3.5, 9.5, 5, 12, 5, 1.5);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (13, 13, 'Pie', 'Beef Pie', 500, 'TRUE', '', '', 8, 'FALSE', 225, 6.5, 8, 3.5, 1, 5.5, 8.5, 8, 6, 4.5);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (14, 14, 'Pie', 'Stew Pie', 500, 'TRUE', '', '', 5, 'FALSE', 340, 8, 6.5, 1.5, 3.5, 9, 11, 6, 2, 8.5);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (15, 15, 'Pie', 'Steak and Stilton Pie', 500, 'TRUE', '', '', 2, 'FALSE', 210, 22.5, 8.5, 25, 4, 5, 10, 7.5, 6, 6.5);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (16, 16, 'Preserve', 'Blueberry Jam', 250, 'TRUE', '', '', 1, 'FALSE', 100, 10, 5.5, 1.5, 4.5, 6, 11, 5.5, 7, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (17, 17, 'Preserve', 'Strawberry Jam', 250, 'TRUE', '', '', 2, 'FALSE', 75, 13, 10.5, 27.5, 1.5, 14.5, 6.5, 2, 5, 1.5);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (18, 18, 'Preserve', 'Blackberry Jam', 250, 'TRUE', '', '', 35, 'FALSE', 80, 6.5, 8, 3.5, 1, 5.5, 8.5, 8, 6, 4.5);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (19, 19, 'Preserve', 'Marmalade', 250, 'TRUE', '', '', 8, 'FALSE', 90, 8, 6.5, 1.5, 3.5, 9, 11, 6, 2, 8.5);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (20, 20, 'Preserve', 'Peach Butter', 250, 'TRUE', '', '', 8, 'FALSE', 60, 7.5, 7, 10, 2.5, 15, 5, 8.5, 6, 6.5);</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3695,7 +4408,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A19" sqref="A19:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,10 +4902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4489,7 +5202,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" ref="A31:A36" si="0">CONCATENATE("INSERT INTO transactionline (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A2,", ",B2,", ",C2,");")</f>
+        <f t="shared" ref="A31:A57" si="0">CONCATENATE("INSERT INTO transactionline (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A2,", ",B2,", ",C2,");")</f>
         <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (1, 1, 3);</v>
       </c>
     </row>
@@ -4521,6 +5234,120 @@
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (6, 4, 19);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (7, 5, 3);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (8, 5, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (9, 5, 11);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (10, 5, 15);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (11, 6, 20);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (12, 6, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (13, 7, 8);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (14, 8, 9);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (15, 9, 6);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (16, 10, 6);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (17, 10, 7);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (18, 10, 8);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (19, 10, 9);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (20, 10, 16);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (21, 11, 18);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (22, 12, 17);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (23, 13, 15);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (24, 14, 13);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (25, 15, 14);</v>
       </c>
     </row>
   </sheetData>
@@ -4530,265 +5357,112 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="C2">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="C3">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="C4">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="C5">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6">
-        <v>11.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8">
-        <v>13.99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12">
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>CONCATENATE("INSERT INTO ingredient (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A2,", '",B2,"', '",C2,"');")</f>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (1, 'Flour', '6.99');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>CONCATENATE("INSERT INTO ingredient (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A3,", '",B3,"', '",C3,"');")</f>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (2, 'Baking Soda', '3.99');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" ref="A19:A30" si="0">CONCATENATE("INSERT INTO ingredient (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A4,", '",B4,"', '",C4,"');")</f>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (3, 'Salt', '2.49');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (4, 'Sugar', '1.99');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (5, 'Steak', '11.99');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (6, 'Kidney', '4.99');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (7, 'Stout', '13.99');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (8, 'Carrots', '2.99');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (9, 'Potatoes', '3.99');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (10, 'Onion', '3.49');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (11, 'Butter', '2.99');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (12, 'Eggs', '3.29');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (13, 'Mushrooms', '5.49');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredient (IngredientCode, IngredientName, Cost) VALUES (14, 'Vegetable Oil', '4.49');</v>
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>CONCATENATE("INSERT INTO accessories (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,")  VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"');")</f>
+        <v>INSERT INTO accessories (AccessoryCode, Name, QuantityOnHand, CostPerUnit)  VALUES (1, 'Large Pie Plate', '67', '0.35');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" ref="A10:A12" si="0">CONCATENATE("INSERT INTO accessories (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,")  VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"');")</f>
+        <v>INSERT INTO accessories (AccessoryCode, Name, QuantityOnHand, CostPerUnit)  VALUES (2, 'Small Pie Plate', '56', '0.25');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accessories (AccessoryCode, Name, QuantityOnHand, CostPerUnit)  VALUES (3, 'Large  Jar', '44', '0.6');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO accessories (AccessoryCode, Name, QuantityOnHand, CostPerUnit)  VALUES (4, 'Small Jar', '38', '0.45');</v>
       </c>
     </row>
   </sheetData>
@@ -4798,47 +5472,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4846,129 +5507,416 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2">
-        <v>600</v>
-      </c>
-      <c r="F2">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f ca="1">RANDBETWEEN(4,55)</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C21" ca="1" si="0">RANDBETWEEN(4,55)</f>
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D21">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f ca="1">CONCATENATE("INSERT INTO productinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,")VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"');")</f>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (1, '1', '5', '6.49');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>CONCATENATE("INSERT INTO mainingredientlist (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A2,", ",B2,", ",C2,", '",D2,"', ",E2,", ",F2,", '",G2,"');")</f>
-        <v>INSERT INTO mainingredientlist (IngredientListCode, IngredientCode, ProductCode, Description, IngredientQuantity, CostPerQuantity, IngredientUnit) VALUES (1, 1, 1, 'sample description', 600, 0.022, 'g');</v>
+        <f t="shared" ref="A25:A43" ca="1" si="1">CONCATENATE("INSERT INTO productinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,")VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"');")</f>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (2, '1', '40', '6.49');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (3, '1', '10', '6.99');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (4, '1', '35', '6.49');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (5, '1', '18', '6.49');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (6, '2', '22', '4.49');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (7, '2', '46', '4.49');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (8, '2', '30', '4.79');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (9, '2', '24', '4.49');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (10, '2', '17', '4.49');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (11, '3', '33', '3.49');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (12, '3', '34', '3.49');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (13, '3', '24', '3.49');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (14, '3', '25', '3.49');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (15, '3', '45', '3.49');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (16, '4', '13', '2.79');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (17, '4', '47', '2.79');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (18, '4', '41', '2.79');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (19, '4', '25', '2.79');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (20, '4', '41', '2.79');</v>
       </c>
     </row>
   </sheetData>
@@ -4978,130 +5926,311 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A17" sqref="A17:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>180</v>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>13.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"');")</f>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (1, 'Flour', '7', '6.99');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" ref="A18:A30" si="0">CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"');")</f>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (2, 'Baking Soda', '4', '3.99');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (3, 'Salt', '2', '2.49');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (4, 'Sugar', '3', '1.99');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (5, 'Steak', '10', '11.99');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (6, 'Kidney', '10', '4.99');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (7, 'Stout', '8', '13.99');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (8, 'Carrots', '5', '2.99');</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>CONCATENATE("INSERT INTO inventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,") VALUES (",A2,", ",B2,", '",C2,"', ",D2,", '",E2,"', '",F2,"');")</f>
-        <v>INSERT INTO inventory (InventoryID, IngredientCode, Description, QuantityInStock, InventoryUnit, CostPerUnit) VALUES (1, 1, 'Inventory table description', 5, 'Pies', '5.99');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (9, 'Potatoes', '10', '3.99');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (10, 'Onion', '7', '3.49');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (11, 'Butter', '22', '2.99');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (12, 'Eggs', '48', '3.29');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (13, 'Mushrooms', '5', '5.49');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (14, 'Vegetable Oil', '3', '4.49');</v>
       </c>
     </row>
   </sheetData>

--- a/sql insert generator.xlsx
+++ b/sql insert generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" tabRatio="637" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" tabRatio="637" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="VenueLocation" sheetId="1" r:id="rId1"/>
@@ -1823,7 +1823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2003,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/sql insert generator.xlsx
+++ b/sql insert generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" tabRatio="637" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" tabRatio="637" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="VenueLocation" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,19 @@
     <sheet name="TransactionLine" sheetId="3" r:id="rId5"/>
     <sheet name="Accessories" sheetId="11" r:id="rId6"/>
     <sheet name="ProductInventory" sheetId="12" r:id="rId7"/>
-    <sheet name="IngredientInventory" sheetId="13" r:id="rId8"/>
-    <sheet name="Supply" sheetId="7" r:id="rId9"/>
-    <sheet name="MainIngredientList" sheetId="5" r:id="rId10"/>
-    <sheet name="old-ignore1" sheetId="10" r:id="rId11"/>
-    <sheet name="old-ignore" sheetId="6" r:id="rId12"/>
+    <sheet name="Categories" sheetId="14" r:id="rId8"/>
+    <sheet name="IngredientInventory" sheetId="13" r:id="rId9"/>
+    <sheet name="Supply" sheetId="7" r:id="rId10"/>
+    <sheet name="MainIngredientList" sheetId="5" r:id="rId11"/>
+    <sheet name="old-ignore1" sheetId="10" r:id="rId12"/>
+    <sheet name="old-ignore" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="245">
   <si>
     <t>VenueCode</t>
   </si>
@@ -724,6 +725,42 @@
   </si>
   <si>
     <t>Small Jar</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Fruit</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Blueberries</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>Blackberries</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Peaches</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Stilton Cheese</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1142,15 +1179,15 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100, 325)</f>
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(75,150)</f>
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(20,75)</f>
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1168,15 +1205,15 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="0">RANDBETWEEN(100, 325)</f>
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" ca="1" si="1">RANDBETWEEN(75,150)</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" ca="1" si="2">RANDBETWEEN(20,75)</f>
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1194,15 +1231,15 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,15 +1257,15 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>101</v>
+        <v>273</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1246,15 +1283,15 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>258</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1272,15 +1309,15 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,15 +1335,15 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,15 +1361,15 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1350,15 +1387,15 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1376,15 +1413,15 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,15 +1439,15 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1428,15 +1465,15 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1454,15 +1491,15 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1480,15 +1517,15 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1506,39 +1543,39 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"', '",E2,"', '",F2,"', '",G2,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (1, 'Trenton', '2016-03-07', '49.99', '292', '145', '62');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (1, 'Trenton', '2016-03-07', '49.99', '210', '91', '41');</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (2, 'Oshawa', '2016-03-14', '60', '111', '100', '53');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (2, 'Oshawa', '2016-03-14', '60', '149', '75', '20');</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ref="A21:A32" ca="1" si="3">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A4,", '",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (3, 'Ajax', '2016-03-25', '44.99', '290', '140', '60');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (3, 'Ajax', '2016-03-25', '44.99', '126', '90', '49');</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (4, 'Whitby', '2016-04-01', '50', '101', '128', '66');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (4, 'Whitby', '2016-04-01', '50', '273', '116', '59');</v>
       </c>
       <c r="E22" s="2"/>
       <c r="H22" s="3"/>
@@ -1546,7 +1583,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (5, 'Pickering', '2016-04-08', '45', '133', '85', '43');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (5, 'Pickering', '2016-04-08', '45', '258', '147', '26');</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1554,7 +1591,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (6, 'Ajax', '2016-04-16', '35', '204', '139', '52');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (6, 'Ajax', '2016-04-16', '35', '286', '110', '49');</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1563,7 +1600,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (7, 'Oshawa', '2016-04-27', '30', '234', '97', '51');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (7, 'Oshawa', '2016-04-27', '30', '107', '120', '41');</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1571,7 +1608,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (8, 'Claremont', '2016-04-28', '20', '140', '89', '44');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (8, 'Claremont', '2016-04-28', '20', '119', '147', '56');</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1580,7 +1617,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (9, 'Toronto', '2016-05-04', '45', '196', '133', '51');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (9, 'Toronto', '2016-05-04', '45', '180', '76', '53');</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1589,7 +1626,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (10, 'Toronto', '2016-05-11', '49.95', '288', '141', '28');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (10, 'Toronto', '2016-05-11', '49.95', '143', '81', '33');</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1597,7 +1634,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (11, 'Ajax', '2016-05-17', '25', '322', '97', '43');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (11, 'Ajax', '2016-05-17', '25', '283', '106', '59');</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1606,7 +1643,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (12, 'Trenton', '2016-05-18', '35', '306', '100', '22');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (12, 'Trenton', '2016-05-18', '35', '169', '76', '74');</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1614,7 +1651,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (13, 'Whitby', '2016-05-25', '45', '258', '93', '72');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (13, 'Whitby', '2016-05-25', '45', '325', '123', '30');</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1622,7 +1659,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (14, 'GreenWood', '2016-05-26', '50', '211', '115', '74');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (14, 'GreenWood', '2016-05-26', '50', '240', '139', '37');</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1630,7 +1667,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A16,", '",B16,"', '",C16,"', '",D16,"', '",E16,"', '",F16,"', '",G16,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (15, 'Markham', '2016-06-03', '50', '239', '103', '22');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (15, 'Markham', '2016-06-03', '50', '152', '79', '74');</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1821,9 +1858,104 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>CONCATENATE("INSERT INTO supply (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,") VALUES (",A2,", ",B2,", '",C2,"', '",D2,"', '",E2,"', ",F2,", ",G2,", '",H2,"', '",I2,"', '",J2,"');")</f>
+        <v>INSERT INTO supply (OrderID, IngredientCode, Description, OrderDate, OrderTime, QuantityOrdered, SupplyUnit, UnitPrice, OrderedTo, OrderedBy) VALUES (1, 1, 'sample supply table description', '2015-08-05', '04:06:13', 2, 1, '3', 'Whitby', 'Juan');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -1999,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2267,7 +2399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -2952,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4291,7 +4423,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" ref="A36:A65" si="2">CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,") VALUES (",A4,", ",B4,", '",C4,"', '",D4,"', ",E4,", '",F4,"', '",G4,"', '",H4,"', ",I4,", '",J4,"', ",K4,", ",L4,", ",M4,", ",N4,", ",O4,", ",P4,", ",Q4,", ",R4,", ",S4,", ",T4,");")</f>
+        <f t="shared" ref="A36:A53" si="2">CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,") VALUES (",A4,", ",B4,", '",C4,"', '",D4,"', ",E4,", '",F4,"', '",G4,"', '",H4,"', ",I4,", '",J4,"', ",K4,", ",L4,", ",M4,", ",N4,", ",O4,", ",P4,", ",Q4,", ",R4,", ",S4,", ",T4,");")</f>
         <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (3, 3, 'Pie', 'Beef Pie', 1000, 'TRUE', '', '', 5, 'FALSE', 450, 13, 16, 7, 2, 11, 17, 16, 12, 9);</v>
       </c>
     </row>
@@ -5202,7 +5334,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f t="shared" ref="A31:A57" si="0">CONCATENATE("INSERT INTO transactionline (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A2,", ",B2,", ",C2,");")</f>
+        <f t="shared" ref="A31:A55" si="0">CONCATENATE("INSERT INTO transactionline (",$A$1,", ",$B$1,", ",$C$1,") VALUES (",A2,", ",B2,", ",C2,");")</f>
         <v>INSERT INTO transactionline (LineID, TransactionID, ProductCode) VALUES (1, 1, 3);</v>
       </c>
     </row>
@@ -5508,7 +5640,7 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(4,55)</f>
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>6.49</v>
@@ -5523,7 +5655,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C21" ca="1" si="0">RANDBETWEEN(4,55)</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>6.49</v>
@@ -5538,7 +5670,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>6.99</v>
@@ -5553,7 +5685,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>6.49</v>
@@ -5568,7 +5700,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>6.49</v>
@@ -5583,7 +5715,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>4.49</v>
@@ -5598,7 +5730,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>4.49</v>
@@ -5613,7 +5745,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>4.79</v>
@@ -5628,7 +5760,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D10">
         <v>4.49</v>
@@ -5643,7 +5775,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>4.49</v>
@@ -5658,7 +5790,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>3.49</v>
@@ -5673,7 +5805,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>3.49</v>
@@ -5688,7 +5820,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>3.49</v>
@@ -5718,7 +5850,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>3.49</v>
@@ -5733,7 +5865,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>2.79</v>
@@ -5748,7 +5880,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>2.79</v>
@@ -5763,7 +5895,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>2.79</v>
@@ -5778,7 +5910,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>2.79</v>
@@ -5793,7 +5925,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>2.79</v>
@@ -5802,79 +5934,79 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f ca="1">CONCATENATE("INSERT INTO productinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,")VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"');")</f>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (1, '1', '5', '6.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (1, '1', '43', '6.49');</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A43" ca="1" si="1">CONCATENATE("INSERT INTO productinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,")VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"');")</f>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (2, '1', '40', '6.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (2, '1', '32', '6.49');</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (3, '1', '10', '6.99');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (3, '1', '19', '6.99');</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (4, '1', '35', '6.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (4, '1', '49', '6.49');</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (5, '1', '18', '6.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (5, '1', '27', '6.49');</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (6, '2', '22', '4.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (6, '2', '26', '4.49');</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (7, '2', '46', '4.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (7, '2', '5', '4.49');</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (8, '2', '30', '4.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (8, '2', '38', '4.79');</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (9, '2', '24', '4.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (9, '2', '40', '4.49');</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (10, '2', '17', '4.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (10, '2', '54', '4.49');</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (11, '3', '33', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (11, '3', '47', '3.49');</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (12, '3', '34', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (12, '3', '11', '3.49');</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (13, '3', '24', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (13, '3', '45', '3.49');</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -5886,37 +6018,37 @@
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (15, '3', '45', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (15, '3', '36', '3.49');</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (16, '4', '13', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (16, '4', '50', '2.79');</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (17, '4', '47', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (17, '4', '34', '2.79');</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (18, '4', '41', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (18, '4', '20', '2.79');</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (19, '4', '25', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (19, '4', '6', '2.79');</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (20, '4', '41', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (20, '4', '50', '2.79');</v>
       </c>
     </row>
   </sheetData>
@@ -5926,10 +6058,69 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A30"/>
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5939,7 +6130,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -5952,8 +6143,11 @@
       <c r="D1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5966,8 +6160,11 @@
       <c r="D2">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5980,8 +6177,11 @@
       <c r="D3">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5994,8 +6194,11 @@
       <c r="D4">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6008,8 +6211,11 @@
       <c r="D5">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6022,8 +6228,11 @@
       <c r="D6">
         <v>11.99</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6036,8 +6245,11 @@
       <c r="D7">
         <v>4.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6050,8 +6262,11 @@
       <c r="D8">
         <v>13.99</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6064,8 +6279,11 @@
       <c r="D9">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6078,8 +6296,11 @@
       <c r="D10">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6092,8 +6313,11 @@
       <c r="D11">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6106,8 +6330,11 @@
       <c r="D12">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6120,8 +6347,11 @@
       <c r="D13">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6134,8 +6364,11 @@
       <c r="D14">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6148,184 +6381,211 @@
       <c r="D15">
         <v>4.49</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"');")</f>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (1, 'Flour', '7', '6.99');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" ref="A18:A30" si="0">CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"');")</f>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (2, 'Baking Soda', '4', '3.99');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (3, 'Salt', '2', '2.49');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (4, 'Sugar', '3', '1.99');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (5, 'Steak', '10', '11.99');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (6, 'Kidney', '10', '4.99');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (7, 'Stout', '8', '13.99');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (8, 'Carrots', '5', '2.99');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (9, 'Potatoes', '10', '3.99');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (10, 'Onion', '7', '3.49');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (11, 'Butter', '22', '2.99');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (12, 'Eggs', '48', '3.29');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>3.99</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3.49</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>2.59</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1.99</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>3.98</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>8.99</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>6.49</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (13, 'Mushrooms', '5', '5.49');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"', '",E2,"');")</f>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (1, 'Flour', '7', '6.99', '4');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit) VALUES (14, 'Vegetable Oil', '3', '4.49');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="str">
-        <f>CONCATENATE("INSERT INTO supply (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,") VALUES (",A2,", ",B2,", '",C2,"', '",D2,"', '",E2,"', ",F2,", ",G2,", '",H2,"', '",I2,"', '",J2,"');")</f>
-        <v>INSERT INTO supply (OrderID, IngredientCode, Description, OrderDate, OrderTime, QuantityOrdered, SupplyUnit, UnitPrice, OrderedTo, OrderedBy) VALUES (1, 1, 'sample supply table description', '2015-08-05', '04:06:13', 2, 1, '3', 'Whitby', 'Juan');</v>
+        <f t="shared" ref="A30:A42" si="0">CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"');")</f>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (2, 'Baking Soda', '4', '3.99', '4');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (3, 'Salt', '2', '2.49', '4');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (4, 'Sugar', '3', '1.99', '4');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (5, 'Steak', '10', '11.99', '1');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (6, 'Kidney', '10', '4.99', '1');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (7, 'Stout', '8', '13.99', '4');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (8, 'Carrots', '5', '2.99', '3');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (9, 'Potatoes', '10', '3.99', '3');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (10, 'Onion', '7', '3.49', '3');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (11, 'Butter', '22', '2.99', '4');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (12, 'Eggs', '48', '3.29', '4');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (13, 'Mushrooms', '5', '5.49', '3');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (14, 'Vegetable Oil', '3', '4.49', '4');</v>
       </c>
     </row>
   </sheetData>

--- a/sql insert generator.xlsx
+++ b/sql insert generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" tabRatio="637" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="8250" tabRatio="637" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VenueLocation" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="251">
   <si>
     <t>VenueCode</t>
   </si>
@@ -761,6 +761,24 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>HST</t>
+  </si>
+  <si>
+    <t>chickenpotpie.png</t>
+  </si>
+  <si>
+    <t>vegetablepie.png</t>
+  </si>
+  <si>
+    <t>beefpie.png</t>
+  </si>
+  <si>
+    <t>stewpie.png</t>
+  </si>
+  <si>
+    <t>steakandstiltonpie.png</t>
   </si>
 </sst>
 </file>
@@ -809,7 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -822,6 +840,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,15 +1198,15 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100, 325)</f>
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(75,150)</f>
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(20,75)</f>
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1205,15 +1224,15 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E16" ca="1" si="0">RANDBETWEEN(100, 325)</f>
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F16" ca="1" si="1">RANDBETWEEN(75,150)</f>
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G16" ca="1" si="2">RANDBETWEEN(20,75)</f>
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,15 +1250,15 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>280</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,15 +1276,15 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1283,15 +1302,15 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,15 +1328,15 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,15 +1354,15 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1361,15 +1380,15 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1387,15 +1406,15 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,15 +1432,15 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1439,15 +1458,15 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1465,15 +1484,15 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,15 +1510,15 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1517,15 +1536,15 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1543,39 +1562,39 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"', '",E2,"', '",F2,"', '",G2,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (1, 'Trenton', '2016-03-07', '49.99', '210', '91', '41');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (1, 'Trenton', '2016-03-07', '49.99', '315', '115', '62');</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (2, 'Oshawa', '2016-03-14', '60', '149', '75', '20');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (2, 'Oshawa', '2016-03-14', '60', '168', '118', '33');</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" ref="A21:A32" ca="1" si="3">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A4,", '",B4,"', '",C4,"', '",D4,"', '",E4,"', '",F4,"', '",G4,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (3, 'Ajax', '2016-03-25', '44.99', '126', '90', '49');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (3, 'Ajax', '2016-03-25', '44.99', '280', '122', '67');</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (4, 'Whitby', '2016-04-01', '50', '273', '116', '59');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (4, 'Whitby', '2016-04-01', '50', '292', '75', '60');</v>
       </c>
       <c r="E22" s="2"/>
       <c r="H22" s="3"/>
@@ -1583,7 +1602,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (5, 'Pickering', '2016-04-08', '45', '258', '147', '26');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (5, 'Pickering', '2016-04-08', '45', '300', '123', '44');</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1591,7 +1610,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (6, 'Ajax', '2016-04-16', '35', '286', '110', '49');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (6, 'Ajax', '2016-04-16', '35', '166', '150', '44');</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1600,7 +1619,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (7, 'Oshawa', '2016-04-27', '30', '107', '120', '41');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (7, 'Oshawa', '2016-04-27', '30', '283', '78', '25');</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1608,7 +1627,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (8, 'Claremont', '2016-04-28', '20', '119', '147', '56');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (8, 'Claremont', '2016-04-28', '20', '105', '109', '46');</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1617,7 +1636,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (9, 'Toronto', '2016-05-04', '45', '180', '76', '53');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (9, 'Toronto', '2016-05-04', '45', '158', '111', '72');</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1626,7 +1645,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (10, 'Toronto', '2016-05-11', '49.95', '143', '81', '33');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (10, 'Toronto', '2016-05-11', '49.95', '223', '80', '74');</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1634,7 +1653,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (11, 'Ajax', '2016-05-17', '25', '283', '106', '59');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (11, 'Ajax', '2016-05-17', '25', '213', '123', '33');</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1643,7 +1662,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (12, 'Trenton', '2016-05-18', '35', '169', '76', '74');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (12, 'Trenton', '2016-05-18', '35', '174', '126', '39');</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1651,7 +1670,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (13, 'Whitby', '2016-05-25', '45', '325', '123', '30');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (13, 'Whitby', '2016-05-25', '45', '225', '92', '58');</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1659,7 +1678,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (14, 'GreenWood', '2016-05-26', '50', '240', '139', '37');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (14, 'GreenWood', '2016-05-26', '50', '263', '115', '58');</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1667,7 +1686,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f ca="1">CONCATENATE("INSERT INTO venuelocation (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A16,", '",B16,"', '",C16,"', '",D16,"', '",E16,"', '",F16,"', '",G16,"');")</f>
-        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (15, 'Markham', '2016-06-03', '50', '152', '79', '74');</v>
+        <v>INSERT INTO venuelocation (VenueCode, VenueLocation, VenueDate, VenueRentalFee, VenueFullTimeAsstCost, VenuePartTimeCost, VenueUtilityCost) VALUES (15, 'Markham', '2016-06-03', '50', '173', '130', '45');</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1956,7 +1975,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3082,10 +3101,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3121,7 @@
     <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3163,8 +3182,11 @@
       <c r="T1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3183,6 +3205,12 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" t="s">
+        <v>246</v>
+      </c>
       <c r="I2">
         <v>10</v>
       </c>
@@ -3219,8 +3247,11 @@
       <c r="T2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3239,6 +3270,12 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
+      <c r="G3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" t="s">
+        <v>247</v>
+      </c>
       <c r="I3">
         <v>8</v>
       </c>
@@ -3275,8 +3312,11 @@
       <c r="T3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3295,6 +3335,12 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
+      <c r="G4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H4" t="s">
+        <v>248</v>
+      </c>
       <c r="I4">
         <v>5</v>
       </c>
@@ -3331,8 +3377,11 @@
       <c r="T4">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3351,6 +3400,12 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
+      <c r="G5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H5" t="s">
+        <v>249</v>
+      </c>
       <c r="I5">
         <v>3</v>
       </c>
@@ -3387,8 +3442,11 @@
       <c r="T5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3407,6 +3465,12 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
+      <c r="G6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" t="s">
+        <v>250</v>
+      </c>
       <c r="I6">
         <v>8</v>
       </c>
@@ -3443,8 +3507,11 @@
       <c r="T6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3499,8 +3566,11 @@
       <c r="T7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3555,8 +3625,11 @@
       <c r="T8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3611,8 +3684,11 @@
       <c r="T9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3667,8 +3743,11 @@
       <c r="T10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3723,8 +3802,11 @@
       <c r="T11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3742,6 +3824,12 @@
       </c>
       <c r="F12" t="b">
         <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" t="s">
+        <v>246</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -3789,8 +3877,11 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3808,6 +3899,12 @@
       </c>
       <c r="F13" t="b">
         <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" t="s">
+        <v>247</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -3855,8 +3952,11 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3875,6 +3975,12 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
+      <c r="G14" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" t="s">
+        <v>248</v>
+      </c>
       <c r="I14">
         <v>8</v>
       </c>
@@ -3921,8 +4027,11 @@
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3941,6 +4050,12 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
+      <c r="G15" t="s">
+        <v>249</v>
+      </c>
+      <c r="H15" t="s">
+        <v>249</v>
+      </c>
       <c r="I15">
         <v>5</v>
       </c>
@@ -3987,8 +4102,11 @@
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4007,6 +4125,12 @@
       <c r="F16" t="b">
         <v>1</v>
       </c>
+      <c r="G16" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" t="s">
+        <v>250</v>
+      </c>
       <c r="I16">
         <v>2</v>
       </c>
@@ -4053,8 +4177,11 @@
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4119,8 +4246,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4185,8 +4315,11 @@
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4251,8 +4384,11 @@
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4317,8 +4453,11 @@
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4383,150 +4522,153 @@
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,") VALUES (",A2,", ",B2,", '",C2,"', '",D2,"', ",E2,", '",F2,"', '",G2,"', '",H2,"', ",I2,", '",J2,"', ",K2,", ",L2,", ",M2,", ",N2,", ",O2,", ",P2,", ",Q2,", ",R2,", ",S2,", ",T2,");")</f>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (1, 1, 'Pie', 'Chicken Pot Pie', 1000, 'TRUE', '', '', 10, 'FALSE', 400, 20, 10, 5, 5, 10, 20, 15, 10, 7);</v>
+        <f>CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,", ",$U$1,") VALUES (",A2,", ",B2,", '",C2,"', '",D2,"', ",E2,", '",F2,"', '",G2,"', '",H2,"', ",I2,", '",J2,"', ",K2,", ",L2,", ",M2,", ",N2,", ",O2,", ",P2,", ",Q2,", ",R2,", ",S2,", ",T2,", '",U2,"');")</f>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (1, 1, 'Pie', 'Chicken Pot Pie', 1000, 'TRUE', 'chickenpotpie.png', 'chickenpotpie.png', 10, 'FALSE', 400, 20, 10, 5, 5, 10, 20, 15, 10, 7, 'sample description');</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,") VALUES (",A3,", ",B3,", '",C3,"', '",D3,"', ",E3,", '",F3,"', '",G3,"', '",H3,"', ",I3,", '",J3,"', ",K3,", ",L3,", ",M3,", ",N3,", ",O3,", ",P3,", ",Q3,", ",R3,", ",S3,", ",T3,");")</f>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (2, 2, 'Pie', 'Vegetable Pie', 1000, 'TRUE', '', '', 8, 'FALSE', 500, 26, 11, 15, 7, 19, 10, 24, 10, 3);</v>
+        <f t="shared" ref="A35:A53" si="2">CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,", ",$U$1,") VALUES (",A3,", ",B3,", '",C3,"', '",D3,"', ",E3,", '",F3,"', '",G3,"', '",H3,"', ",I3,", '",J3,"', ",K3,", ",L3,", ",M3,", ",N3,", ",O3,", ",P3,", ",Q3,", ",R3,", ",S3,", ",T3,", '",U3,"');")</f>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (2, 2, 'Pie', 'Vegetable Pie', 1000, 'TRUE', 'vegetablepie.png', 'vegetablepie.png', 8, 'FALSE', 500, 26, 11, 15, 7, 19, 10, 24, 10, 3, 'sample description');</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f t="shared" ref="A36:A53" si="2">CONCATENATE("INSERT INTO main (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,", ",$K$1,", ",$L$1,", ",$M$1,", ",$N$1,", ",$O$1,", ",$P$1,", ",$Q$1,", ",$R$1,", ",$S$1,", ",$T$1,") VALUES (",A4,", ",B4,", '",C4,"', '",D4,"', ",E4,", '",F4,"', '",G4,"', '",H4,"', ",I4,", '",J4,"', ",K4,", ",L4,", ",M4,", ",N4,", ",O4,", ",P4,", ",Q4,", ",R4,", ",S4,", ",T4,");")</f>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (3, 3, 'Pie', 'Beef Pie', 1000, 'TRUE', '', '', 5, 'FALSE', 450, 13, 16, 7, 2, 11, 17, 16, 12, 9);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (3, 3, 'Pie', 'Beef Pie', 1000, 'TRUE', 'beefpie.png', 'beefpie.png', 5, 'FALSE', 450, 13, 16, 7, 2, 11, 17, 16, 12, 9, 'sample description');</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (4, 4, 'Pie', 'Stew Pie', 1000, 'TRUE', '', '', 3, 'FALSE', 680, 16, 13, 3, 7, 18, 22, 12, 4, 17);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (4, 4, 'Pie', 'Stew Pie', 1000, 'TRUE', 'stewpie.png', 'stewpie.png', 3, 'FALSE', 680, 16, 13, 3, 7, 18, 22, 12, 4, 17, 'sample description');</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (5, 5, 'Pie', 'Steak and Stilton Pie', 1000, 'TRUE', '', '', 8, 'FALSE', 420, 45, 17, 50, 8, 10, 20, 15, 12, 13);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (5, 5, 'Pie', 'Steak and Stilton Pie', 1000, 'TRUE', 'steakandstiltonpie.png', 'steakandstiltonpie.png', 8, 'FALSE', 420, 45, 17, 50, 8, 10, 20, 15, 12, 13, 'sample description');</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (6, 6, 'Preserve', 'Blueberry Jam', 500, 'TRUE', '', '', 2, 'FALSE', 200, 20, 11, 3, 9, 12, 22, 11, 14, 2);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (6, 6, 'Preserve', 'Blueberry Jam', 500, 'TRUE', '', '', 2, 'FALSE', 200, 20, 11, 3, 9, 12, 22, 11, 14, 2, 'sample description');</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (7, 7, 'Preserve', 'Strawberry Jam', 500, 'TRUE', '', '', 4, 'FALSE', 150, 26, 21, 55, 3, 29, 13, 4, 10, 3);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (7, 7, 'Preserve', 'Strawberry Jam', 500, 'TRUE', '', '', 4, 'FALSE', 150, 26, 21, 55, 3, 29, 13, 4, 10, 3, 'sample description');</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (8, 8, 'Preserve', 'Blackberry Jam', 500, 'TRUE', '', '', 5, 'FALSE', 160, 13, 16, 7, 2, 11, 17, 16, 12, 9);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (8, 8, 'Preserve', 'Blackberry Jam', 500, 'TRUE', '', '', 5, 'FALSE', 160, 13, 16, 7, 2, 11, 17, 16, 12, 9, 'sample description');</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (9, 9, 'Preserve', 'Marmalade', 500, 'TRUE', '', '', 6, 'FALSE', 180, 16, 13, 3, 7, 18, 22, 12, 4, 17);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (9, 9, 'Preserve', 'Marmalade', 500, 'TRUE', '', '', 6, 'FALSE', 180, 16, 13, 3, 7, 18, 22, 12, 4, 17, 'sample description');</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (10, 10, 'Preserve', 'Peach Butter', 500, 'TRUE', '', '', 8, 'FALSE', 120, 15, 14, 20, 5, 30, 10, 17, 12, 13);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (10, 10, 'Preserve', 'Peach Butter', 500, 'TRUE', '', '', 8, 'FALSE', 120, 15, 14, 20, 5, 30, 10, 17, 12, 13, 'sample description');</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (11, 11, 'Pie', 'Chicken Pot Pie', 500, 'TRUE', '', '', 6, 'FALSE', 200, 10, 5, 2.5, 2.5, 5, 10, 7.5, 5, 3.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (11, 11, 'Pie', 'Chicken Pot Pie', 500, 'TRUE', 'chickenpotpie.png', 'chickenpotpie.png', 6, 'FALSE', 200, 10, 5, 2.5, 2.5, 5, 10, 7.5, 5, 3.5, 'sample description');</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (12, 12, 'Pie', 'Vegetable Pie', 500, 'TRUE', '', '', 9, 'FALSE', 250, 13, 5.5, 7.5, 3.5, 9.5, 5, 12, 5, 1.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (12, 12, 'Pie', 'Vegetable Pie', 500, 'TRUE', 'vegetablepie.png', 'vegetablepie.png', 9, 'FALSE', 250, 13, 5.5, 7.5, 3.5, 9.5, 5, 12, 5, 1.5, 'sample description');</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (13, 13, 'Pie', 'Beef Pie', 500, 'TRUE', '', '', 8, 'FALSE', 225, 6.5, 8, 3.5, 1, 5.5, 8.5, 8, 6, 4.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (13, 13, 'Pie', 'Beef Pie', 500, 'TRUE', 'beefpie.png', 'beefpie.png', 8, 'FALSE', 225, 6.5, 8, 3.5, 1, 5.5, 8.5, 8, 6, 4.5, 'sample description');</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (14, 14, 'Pie', 'Stew Pie', 500, 'TRUE', '', '', 5, 'FALSE', 340, 8, 6.5, 1.5, 3.5, 9, 11, 6, 2, 8.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (14, 14, 'Pie', 'Stew Pie', 500, 'TRUE', 'stewpie.png', 'stewpie.png', 5, 'FALSE', 340, 8, 6.5, 1.5, 3.5, 9, 11, 6, 2, 8.5, 'sample description');</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (15, 15, 'Pie', 'Steak and Stilton Pie', 500, 'TRUE', '', '', 2, 'FALSE', 210, 22.5, 8.5, 25, 4, 5, 10, 7.5, 6, 6.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (15, 15, 'Pie', 'Steak and Stilton Pie', 500, 'TRUE', 'steakandstiltonpie.png', 'steakandstiltonpie.png', 2, 'FALSE', 210, 22.5, 8.5, 25, 4, 5, 10, 7.5, 6, 6.5, 'sample description');</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (16, 16, 'Preserve', 'Blueberry Jam', 250, 'TRUE', '', '', 1, 'FALSE', 100, 10, 5.5, 1.5, 4.5, 6, 11, 5.5, 7, 1);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (16, 16, 'Preserve', 'Blueberry Jam', 250, 'TRUE', '', '', 1, 'FALSE', 100, 10, 5.5, 1.5, 4.5, 6, 11, 5.5, 7, 1, 'sample description');</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (17, 17, 'Preserve', 'Strawberry Jam', 250, 'TRUE', '', '', 2, 'FALSE', 75, 13, 10.5, 27.5, 1.5, 14.5, 6.5, 2, 5, 1.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (17, 17, 'Preserve', 'Strawberry Jam', 250, 'TRUE', '', '', 2, 'FALSE', 75, 13, 10.5, 27.5, 1.5, 14.5, 6.5, 2, 5, 1.5, 'sample description');</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (18, 18, 'Preserve', 'Blackberry Jam', 250, 'TRUE', '', '', 35, 'FALSE', 80, 6.5, 8, 3.5, 1, 5.5, 8.5, 8, 6, 4.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (18, 18, 'Preserve', 'Blackberry Jam', 250, 'TRUE', '', '', 35, 'FALSE', 80, 6.5, 8, 3.5, 1, 5.5, 8.5, 8, 6, 4.5, 'sample description');</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (19, 19, 'Preserve', 'Marmalade', 250, 'TRUE', '', '', 8, 'FALSE', 90, 8, 6.5, 1.5, 3.5, 9, 11, 6, 2, 8.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (19, 19, 'Preserve', 'Marmalade', 250, 'TRUE', '', '', 8, 'FALSE', 90, 8, 6.5, 1.5, 3.5, 9, 11, 6, 2, 8.5, 'sample description');</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein) VALUES (20, 20, 'Preserve', 'Peach Butter', 250, 'TRUE', '', '', 8, 'FALSE', 60, 7.5, 7, 10, 2.5, 15, 5, 8.5, 6, 6.5);</v>
+        <v>INSERT INTO main (ProductCode, GroupCode, ProductType, ProductName, ProductSize, Availability, ProductImageBig, ProductImageSmall, SaleAmount, OutOfProduction, Calories, Fat, SaturatedFat, TransFat, Cholesterol, Sodium, Carbohydrates, DietaryFiber, Sugar, Protein, Description) VALUES (20, 20, 'Preserve', 'Peach Butter', 250, 'TRUE', '', '', 8, 'FALSE', 60, 7.5, 7, 10, 2.5, 15, 5, 8.5, 6, 6.5, 'sample description');</v>
       </c>
     </row>
   </sheetData>
@@ -4537,7 +4679,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:A33"/>
@@ -4552,9 +4694,10 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4576,8 +4719,17 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4600,8 +4752,17 @@
       <c r="G2">
         <v>9054567895</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>33.25</v>
+      </c>
+      <c r="I2" s="12">
+        <v>37.57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4624,8 +4785,17 @@
       <c r="G3">
         <v>4165654325</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="I3" s="12">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="J3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4648,8 +4818,17 @@
       <c r="G4">
         <v>4168952321</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>28.15</v>
+      </c>
+      <c r="I4" s="12">
+        <v>31.8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4672,8 +4851,17 @@
       <c r="G5">
         <v>2896009681</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>48.12</v>
+      </c>
+      <c r="I5" s="12">
+        <v>54.76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4696,8 +4884,17 @@
       <c r="G6">
         <v>2895128745</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>15.99</v>
+      </c>
+      <c r="I6" s="12">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="J6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4720,8 +4917,17 @@
       <c r="G7">
         <v>9052369856</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>15.29</v>
+      </c>
+      <c r="I7" s="12">
+        <v>17.27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4744,8 +4950,17 @@
       <c r="G8">
         <v>9054447894</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>6.49</v>
+      </c>
+      <c r="I8" s="12">
+        <v>7.33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4768,8 +4983,17 @@
       <c r="G9">
         <v>9051236547</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>6.79</v>
+      </c>
+      <c r="I9" s="12">
+        <v>7.67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4792,8 +5016,17 @@
       <c r="G10">
         <v>2895128745</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>24.98</v>
+      </c>
+      <c r="I10" s="12">
+        <v>28.22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4816,8 +5049,17 @@
       <c r="G11">
         <v>2895245555</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>16.23</v>
+      </c>
+      <c r="I11" s="12">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4840,8 +5082,17 @@
       <c r="G12">
         <v>9057786230</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>14.98</v>
+      </c>
+      <c r="I12" s="12">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4864,8 +5115,17 @@
       <c r="G13">
         <v>9052896662</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>17.89</v>
+      </c>
+      <c r="I13" s="12">
+        <v>20.21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4888,8 +5148,17 @@
       <c r="G14">
         <v>2896266891</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>19.79</v>
+      </c>
+      <c r="I14" s="12">
+        <v>22.36</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4912,8 +5181,17 @@
       <c r="G15">
         <v>9054275813</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>6.49</v>
+      </c>
+      <c r="I15" s="12">
+        <v>7.37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4936,99 +5214,109 @@
       <c r="G16">
         <v>9054873215</v>
       </c>
+      <c r="H16">
+        <v>4.99</v>
+      </c>
+      <c r="I16" s="12">
+        <v>5.63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>CONCATENATE("INSERT INTO transactions (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"', '",E2,"', '",F2,"', '",G2,"');")</f>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (1, '1', '2016-03-07', 'Mike', 'Brosnan', 'Mike@gmail.com', '9054567895');</v>
+        <f>CONCATENATE("INSERT INTO transactions (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,") VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"', '",E2,"', '",F2,"', '",G2,"', '",H2,"', '",I2,"', '",J2,"');")</f>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (1, '1', '2016-03-07', 'Mike', 'Brosnan', 'Mike@gmail.com', '9054567895', '33.25', '37.57', 'sample description');</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="shared" ref="A20:A33" si="1">CONCATENATE("INSERT INTO transactions (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"');")</f>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (2, '1', '2016-03-07', 'Eva', 'Matys', 'Eva@gmail.com', '4165654325');</v>
+        <f t="shared" ref="A20:A33" si="1">CONCATENATE("INSERT INTO transactions (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,", ",$F$1,", ",$G$1,", ",$H$1,", ",$I$1,", ",$J$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"', '",F3,"', '",G3,"', '",H3,"', '",I3,"', '",J3,"');")</f>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (2, '1', '2016-03-07', 'Eva', 'Matys', 'Eva@gmail.com', '4165654325', '35.45', '40.05', 'sample description');</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (3, '1', '2016-03-07', 'Megan', 'MacQuarrie', 'Megan@gmail.com', '4168952321');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (3, '1', '2016-03-07', 'Megan', 'MacQuarrie', 'Megan@gmail.com', '4168952321', '28.15', '31.8', 'sample description');</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (4, '1', '2016-03-07', 'Erik', 'Richards', 'Erik@gmail.com', '2896009681');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (4, '1', '2016-03-07', 'Erik', 'Richards', 'Erik@gmail.com', '2896009681', '48.12', '54.76', 'sample description');</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (5, '1', '2016-03-07', 'Corey', 'Richards', 'Corey@gmail.com', '2895128745');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (5, '1', '2016-03-07', 'Corey', 'Richards', 'Corey@gmail.com', '2895128745', '15.99', '18.06', 'sample description');</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (6, '1', '2016-03-07', 'Sam', 'Munroe', 'Sam@gmail.com', '9052369856');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (6, '1', '2016-03-07', 'Sam', 'Munroe', 'Sam@gmail.com', '9052369856', '15.29', '17.27', 'sample description');</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (7, '1', '2016-03-07', 'Olivia', 'Green', 'Olivia@gmail.com', '9054447894');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (7, '1', '2016-03-07', 'Olivia', 'Green', 'Olivia@gmail.com', '9054447894', '6.49', '7.33', 'sample description');</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (8, '1', '2016-03-07', 'Raechel', 'Livingston', 'Raechel@gmail.com', '9051236547');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (8, '1', '2016-03-07', 'Raechel', 'Livingston', 'Raechel@gmail.com', '9051236547', '6.79', '7.67', 'sample description');</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (9, '2', '2016-03-14', 'Corey', 'Richards', 'Corey@gmail.com', '2895128745');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (9, '2', '2016-03-14', 'Corey', 'Richards', 'Corey@gmail.com', '2895128745', '24.98', '28.22', 'sample description');</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (10, '2', '2016-03-14', 'Howard', 'Phillip', 'Howard@gmail.com', '2895245555');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (10, '2', '2016-03-14', 'Howard', 'Phillip', 'Howard@gmail.com', '2895245555', '16.23', '18.33', 'sample description');</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (11, '2', '2016-03-14', 'Matt', 'Scott', 'Matt@gmail.com', '9057786230');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (11, '2', '2016-03-14', 'Matt', 'Scott', 'Matt@gmail.com', '9057786230', '14.98', '16.92', 'sample description');</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (12, '2', '2016-03-14', 'Andrew', 'Brunette', 'Andrew@gmail.com', '9052896662');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (12, '2', '2016-03-14', 'Andrew', 'Brunette', 'Andrew@gmail.com', '9052896662', '17.89', '20.21', 'sample description');</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (13, '2', '2016-03-14', 'Brendan', 'Kelly', 'Brendan@gmail.com', '2896266891');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (13, '2', '2016-03-14', 'Brendan', 'Kelly', 'Brendan@gmail.com', '2896266891', '19.79', '22.36', 'sample description');</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (14, '2', '2016-03-14', 'Jack', 'Terricloth', 'Jack@gmail.com', '9054275813');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (14, '2', '2016-03-14', 'Jack', 'Terricloth', 'Jack@gmail.com', '9054275813', '6.49', '7.37', 'sample description');</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone) VALUES (15, '2', '2016-03-14', 'John', 'Smith', 'John@gmail.com', '9054873215');</v>
+        <v>INSERT INTO transactions (TransactionID, VenueCode, TransactionDate, CustomerFirstName, CustomerLastName, CustomerEmail, CustomerCellphone, Cost, HST, Description) VALUES (15, '2', '2016-03-14', 'John', 'Smith', 'John@gmail.com', '9054873215', '4.99', '5.63', 'sample description');</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5036,7 +5324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31:A55"/>
     </sheetView>
   </sheetViews>
@@ -5606,7 +5894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24:A43"/>
     </sheetView>
   </sheetViews>
@@ -5640,7 +5928,7 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(4,55)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>6.49</v>
@@ -5655,7 +5943,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C21" ca="1" si="0">RANDBETWEEN(4,55)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>6.49</v>
@@ -5670,7 +5958,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>6.99</v>
@@ -5685,7 +5973,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>6.49</v>
@@ -5700,7 +5988,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>6.49</v>
@@ -5715,7 +6003,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>4.49</v>
@@ -5730,7 +6018,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>4.49</v>
@@ -5745,7 +6033,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>4.79</v>
@@ -5760,7 +6048,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>4.49</v>
@@ -5775,7 +6063,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>4.49</v>
@@ -5790,7 +6078,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>3.49</v>
@@ -5805,7 +6093,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>3.49</v>
@@ -5820,7 +6108,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>3.49</v>
@@ -5835,7 +6123,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>3.49</v>
@@ -5850,7 +6138,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>3.49</v>
@@ -5865,7 +6153,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>2.79</v>
@@ -5880,7 +6168,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2.79</v>
@@ -5895,7 +6183,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>2.79</v>
@@ -5910,7 +6198,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>2.79</v>
@@ -5925,7 +6213,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>2.79</v>
@@ -5934,121 +6222,121 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f ca="1">CONCATENATE("INSERT INTO productinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,")VALUES (",A2,", '",B2,"', '",C2,"', '",D2,"');")</f>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (1, '1', '43', '6.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (1, '1', '37', '6.49');</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A43" ca="1" si="1">CONCATENATE("INSERT INTO productinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,")VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"');")</f>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (2, '1', '32', '6.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (2, '1', '40', '6.49');</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (3, '1', '19', '6.99');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (3, '1', '24', '6.99');</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (4, '1', '49', '6.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (4, '1', '15', '6.49');</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (5, '1', '27', '6.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (5, '1', '28', '6.49');</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (6, '2', '26', '4.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (6, '2', '38', '4.49');</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (7, '2', '5', '4.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (7, '2', '39', '4.49');</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (8, '2', '38', '4.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (8, '2', '12', '4.79');</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (9, '2', '40', '4.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (9, '2', '12', '4.49');</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (10, '2', '54', '4.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (10, '2', '41', '4.49');</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (11, '3', '47', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (11, '3', '37', '3.49');</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (12, '3', '11', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (12, '3', '46', '3.49');</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (13, '3', '45', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (13, '3', '51', '3.49');</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (14, '3', '25', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (14, '3', '33', '3.49');</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (15, '3', '36', '3.49');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (15, '3', '7', '3.49');</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (16, '4', '50', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (16, '4', '31', '2.79');</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (17, '4', '34', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (17, '4', '19', '2.79');</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (18, '4', '20', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (18, '4', '15', '2.79');</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (19, '4', '6', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (19, '4', '50', '2.79');</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (20, '4', '50', '2.79');</v>
+        <v>INSERT INTO productinventory (ProductCode, AccessoryCode, QuantityOnHand, CostPerUnit)VALUES (20, '4', '39', '2.79');</v>
       </c>
     </row>
   </sheetData>
@@ -6117,10 +6405,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6512,7 +6800,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="shared" ref="A30:A42" si="0">CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"');")</f>
+        <f t="shared" ref="A30:A49" si="0">CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,") VALUES (",A3,", '",B3,"', '",C3,"', '",D3,"', '",E3,"');")</f>
         <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (2, 'Baking Soda', '4', '3.99', '4');</v>
       </c>
     </row>
@@ -6586,6 +6874,48 @@
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (14, 'Vegetable Oil', '3', '4.49', '4');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>CONCATENATE("INSERT INTO ingredientinventory (",$A$1,", ",$B$1,", ",$C$1,", ",$D$1,", ",$E$1,") VALUES (",A16,", '",B16,"', '",C16,"', '",D16,"', '",E16,"');")</f>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (15, 'Blueberries', '6', '3.99', '2');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (16, 'Strawberries', '7', '3.49', '2');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (17, 'Blackberries', '8', '2.59', '2');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (18, 'Oranges', '12', '1.99', '2');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (19, 'Peaches', '16', '3.98', '2');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (20, 'Chicken', '16', '8.99', '1');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ingredientinventory (IngredientCode, IngredientName, QuantityOnHand, CostPerUnit, CategoryID) VALUES (21, 'Stilton Cheese', '5', '6.49', '4');</v>
       </c>
     </row>
   </sheetData>
